--- a/output/nswhealthitocencounter.xlsx
+++ b/output/nswhealthitocencounter.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$102</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3545" uniqueCount="494">
   <si>
     <t>Path</t>
   </si>
@@ -387,6 +387,10 @@
     <t>Identifier(s) by which this encounter is known.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -399,6 +403,231 @@
     <t>PV1-19</t>
   </si>
   <si>
+    <t>domainID</t>
+  </si>
+  <si>
+    <t>Unique Domain ID for this patient encounter</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://ns.health.nsw.gov.au/fhir/ehealth/itoc/id/domainID</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.value</t>
+  </si>
+  <si>
+    <t>The domain identifier value</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>hospitalID</t>
+  </si>
+  <si>
+    <t>Unique Hospital/Facility ID for this patient encounter</t>
+  </si>
+  <si>
+    <t>http://ns.health.nsw.gov.au/fhir/ehealth/itoc/id/hospitalID</t>
+  </si>
+  <si>
+    <t>The hospital/facility identifier value</t>
+  </si>
+  <si>
+    <t>visitID</t>
+  </si>
+  <si>
+    <t>Unique Visit ID for this patient encounter</t>
+  </si>
+  <si>
+    <t>http://ns.health.nsw.gov.au/fhir/ehealth/itoc/id/visitID</t>
+  </si>
+  <si>
+    <t>The visit identifier value</t>
+  </si>
+  <si>
     <t>Encounter.status</t>
   </si>
   <si>
@@ -409,9 +638,6 @@
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Current state of the encounter.</t>
@@ -448,31 +674,10 @@
     <t>The current status is always found in the current version of the resource, not the status history.</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Encounter.statusHistory.modifierExtension</t>
@@ -498,10 +703,6 @@
     <t>Encounter.statusHistory.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>The time that the episode was in the specified status</t>
   </si>
   <si>
@@ -521,9 +722,6 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
@@ -576,10 +774,6 @@
   </si>
   <si>
     <t>Encounter.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Specific type of encounter</t>
@@ -1316,10 +1510,6 @@
   </si>
   <si>
     <t>Encounter.serviceProvider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>The organization (facility) responsible for this encounter</t>
@@ -1504,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM75"/>
+  <dimension ref="A1:AM102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1536,11 +1726,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="72.9921875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.1875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="44.984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1549,7 +1739,7 @@
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="89.54296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="184.875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2847,16 +3037,14 @@
         <v>43</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>113</v>
@@ -2874,23 +3062,25 @@
         <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>43</v>
       </c>
@@ -2905,23 +3095,21 @@
         <v>43</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>43</v>
@@ -2946,13 +3134,13 @@
         <v>43</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>43</v>
@@ -2970,13 +3158,13 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>43</v>
@@ -2985,21 +3173,21 @@
         <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3010,7 +3198,7 @@
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>43</v>
@@ -3022,17 +3210,15 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>43</v>
@@ -3081,25 +3267,25 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>43</v>
@@ -3110,18 +3296,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>43</v>
@@ -3133,15 +3319,17 @@
         <v>43</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>43</v>
@@ -3178,37 +3366,37 @@
         <v>43</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
@@ -3219,41 +3407,43 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>43</v>
       </c>
@@ -3277,13 +3467,13 @@
         <v>43</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>43</v>
@@ -3301,71 +3491,71 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>43</v>
@@ -3390,13 +3580,13 @@
         <v>43</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>43</v>
@@ -3414,36 +3604,36 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3463,31 +3653,35 @@
         <v>43</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>43</v>
@@ -3499,13 +3693,13 @@
         <v>43</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>43</v>
@@ -3523,10 +3717,10 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>50</v>
@@ -3541,18 +3735,18 @@
         <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3572,18 +3766,20 @@
         <v>43</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3596,7 +3792,7 @@
         <v>43</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>43</v>
@@ -3632,10 +3828,10 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3650,18 +3846,18 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>43</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3669,7 +3865,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3684,13 +3880,13 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3717,13 +3913,13 @@
         <v>43</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>43</v>
@@ -3741,10 +3937,10 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>50</v>
@@ -3759,18 +3955,18 @@
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3781,7 +3977,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>43</v>
@@ -3790,18 +3986,20 @@
         <v>43</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>43</v>
@@ -3850,13 +4048,13 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>43</v>
@@ -3868,29 +4066,31 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>43</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>43</v>
@@ -3899,16 +4099,16 @@
         <v>43</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3959,47 +4159,47 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>43</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>43</v>
@@ -4011,17 +4211,15 @@
         <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>43</v>
@@ -4070,25 +4268,25 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>43</v>
@@ -4099,11 +4297,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4116,26 +4314,24 @@
         <v>43</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>43</v>
       </c>
@@ -4171,19 +4367,19 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4201,7 +4397,7 @@
         <v>43</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>43</v>
@@ -4212,7 +4408,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4220,7 +4416,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>50</v>
@@ -4229,22 +4425,26 @@
         <v>43</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
       </c>
@@ -4268,13 +4468,13 @@
         <v>43</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>43</v>
@@ -4292,10 +4492,10 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>50</v>
@@ -4310,18 +4510,18 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4329,7 +4529,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -4341,19 +4541,23 @@
         <v>43</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
       </c>
@@ -4377,13 +4581,13 @@
         <v>43</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
@@ -4401,10 +4605,10 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>50</v>
@@ -4419,18 +4623,18 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4438,10 +4642,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>43</v>
@@ -4453,30 +4657,32 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>43</v>
@@ -4488,13 +4694,13 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>184</v>
+        <v>43</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
@@ -4512,13 +4718,13 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>43</v>
@@ -4527,21 +4733,21 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4549,7 +4755,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4564,15 +4770,17 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4585,7 +4793,7 @@
         <v>43</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>43</v>
@@ -4597,13 +4805,13 @@
         <v>43</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>43</v>
@@ -4621,7 +4829,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4636,21 +4844,21 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>194</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4670,16 +4878,16 @@
         <v>43</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4706,13 +4914,13 @@
         <v>43</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>43</v>
@@ -4730,7 +4938,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4748,22 +4956,22 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>203</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4782,16 +4990,16 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4841,7 +5049,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4856,32 +5064,34 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>43</v>
@@ -4893,13 +5103,13 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4950,7 +5160,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4965,32 +5175,32 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>218</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>43</v>
@@ -5002,13 +5212,13 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5059,25 +5269,25 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5086,40 +5296,42 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -5156,19 +5368,19 @@
         <v>43</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>226</v>
+        <v>133</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5180,24 +5392,24 @@
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>231</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5214,22 +5426,26 @@
         <v>43</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
       </c>
@@ -5253,13 +5469,13 @@
         <v>43</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>43</v>
@@ -5277,7 +5493,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5289,35 +5505,35 @@
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>43</v>
@@ -5326,21 +5542,23 @@
         <v>43</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
       </c>
@@ -5364,13 +5582,13 @@
         <v>43</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>43</v>
@@ -5388,84 +5606,84 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>43</v>
@@ -5501,36 +5719,36 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5538,10 +5756,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>43</v>
@@ -5553,16 +5771,16 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5576,7 +5794,7 @@
         <v>43</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>43</v>
@@ -5588,13 +5806,13 @@
         <v>43</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>43</v>
@@ -5612,13 +5830,13 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>43</v>
@@ -5627,21 +5845,21 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>242</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5661,16 +5879,16 @@
         <v>43</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>244</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5721,7 +5939,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5739,18 +5957,18 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>247</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5773,15 +5991,17 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>43</v>
@@ -5830,7 +6050,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5845,21 +6065,21 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>255</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5867,30 +6087,32 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>257</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -5915,13 +6137,13 @@
         <v>43</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>43</v>
@@ -5939,13 +6161,13 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>43</v>
@@ -5954,21 +6176,21 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>261</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5979,7 +6201,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>43</v>
@@ -5991,16 +6213,16 @@
         <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6050,13 +6272,13 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>43</v>
@@ -6065,21 +6287,21 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>268</v>
+        <v>43</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>269</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6102,17 +6324,15 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>272</v>
+        <v>125</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>43</v>
@@ -6161,7 +6381,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>270</v>
+        <v>127</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6173,28 +6393,28 @@
         <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>266</v>
+        <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>276</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6210,19 +6430,19 @@
         <v>43</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>281</v>
+        <v>110</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6248,13 +6468,13 @@
         <v>43</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>282</v>
+        <v>43</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>43</v>
@@ -6272,7 +6492,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>277</v>
+        <v>133</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6284,28 +6504,28 @@
         <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>287</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6318,24 +6538,26 @@
         <v>43</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>289</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
       </c>
@@ -6383,7 +6605,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6395,24 +6617,24 @@
         <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>284</v>
+        <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>285</v>
+        <v>93</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>287</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6420,10 +6642,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>43</v>
@@ -6432,16 +6654,16 @@
         <v>43</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6468,13 +6690,13 @@
         <v>43</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>43</v>
@@ -6492,13 +6714,13 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>291</v>
+        <v>218</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>43</v>
@@ -6510,7 +6732,7 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
@@ -6521,7 +6743,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6529,7 +6751,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>50</v>
@@ -6544,13 +6766,13 @@
         <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6601,10 +6823,10 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>141</v>
+        <v>219</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>50</v>
@@ -6613,13 +6835,13 @@
         <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>43</v>
@@ -6630,18 +6852,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>43</v>
@@ -6650,20 +6872,18 @@
         <v>43</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -6688,13 +6908,13 @@
         <v>43</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>43</v>
@@ -6712,40 +6932,40 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>137</v>
+        <v>228</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>43</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6758,26 +6978,22 @@
         <v>43</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>43</v>
       </c>
@@ -6825,7 +7041,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6837,13 +7053,13 @@
         <v>43</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>43</v>
@@ -6854,15 +7070,15 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>299</v>
+        <v>43</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>50</v>
@@ -6874,20 +7090,18 @@
         <v>43</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>43</v>
@@ -6936,10 +7150,10 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>298</v>
+        <v>127</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>50</v>
@@ -6948,35 +7162,35 @@
         <v>43</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>304</v>
+        <v>128</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>286</v>
+        <v>43</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>305</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>43</v>
@@ -6988,15 +7202,17 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>307</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -7021,13 +7237,13 @@
         <v>43</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>310</v>
+        <v>43</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>43</v>
@@ -7045,25 +7261,25 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>43</v>
@@ -7074,39 +7290,43 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>312</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
       </c>
@@ -7154,25 +7374,25 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>311</v>
+        <v>217</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>43</v>
@@ -7183,7 +7403,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7191,10 +7411,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>43</v>
@@ -7206,17 +7426,15 @@
         <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>317</v>
+        <v>223</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>43</v>
@@ -7241,13 +7459,13 @@
         <v>43</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>43</v>
+        <v>226</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>43</v>
@@ -7265,13 +7483,13 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>316</v>
+        <v>237</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7283,7 +7501,7 @@
         <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>321</v>
+        <v>128</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>43</v>
@@ -7294,7 +7512,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7302,7 +7520,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>50</v>
@@ -7317,17 +7535,15 @@
         <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7376,10 +7592,10 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>322</v>
+        <v>240</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>50</v>
@@ -7394,7 +7610,7 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>326</v>
+        <v>128</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>43</v>
@@ -7405,7 +7621,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7416,7 +7632,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>43</v>
@@ -7425,18 +7641,20 @@
         <v>43</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -7461,13 +7679,13 @@
         <v>43</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>43</v>
@@ -7485,47 +7703,47 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>43</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>43</v>
@@ -7534,20 +7752,18 @@
         <v>43</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -7572,13 +7788,13 @@
         <v>43</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>43</v>
+        <v>256</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>43</v>
@@ -7596,72 +7812,68 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>43</v>
+        <v>250</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>43</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>43</v>
       </c>
@@ -7685,13 +7897,13 @@
         <v>43</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>43</v>
+        <v>247</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>43</v>
+        <v>262</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>43</v>
@@ -7709,40 +7921,40 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>43</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7758,18 +7970,20 @@
         <v>43</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -7818,7 +8032,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7833,21 +8047,21 @@
         <v>62</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>43</v>
+        <v>272</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>333</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7858,7 +8072,7 @@
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>43</v>
@@ -7867,16 +8081,16 @@
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7927,13 +8141,13 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>43</v>
@@ -7942,32 +8156,32 @@
         <v>62</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>43</v>
+        <v>281</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>43</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>43</v>
@@ -7979,13 +8193,13 @@
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8012,13 +8226,13 @@
         <v>43</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>342</v>
+        <v>43</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>343</v>
+        <v>43</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>43</v>
@@ -8036,13 +8250,13 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>43</v>
@@ -8051,21 +8265,21 @@
         <v>62</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>345</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8073,28 +8287,28 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>348</v>
+        <v>292</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8121,13 +8335,13 @@
         <v>43</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>350</v>
+        <v>43</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>43</v>
@@ -8145,13 +8359,13 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>43</v>
@@ -8160,21 +8374,21 @@
         <v>62</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>43</v>
+        <v>293</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>351</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>352</v>
+        <v>296</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8185,7 +8399,7 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>43</v>
@@ -8197,20 +8411,16 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>353</v>
+        <v>125</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8234,13 +8444,13 @@
         <v>43</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>357</v>
+        <v>43</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>358</v>
+        <v>43</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>43</v>
@@ -8258,40 +8468,40 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>352</v>
+        <v>127</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>359</v>
+        <v>128</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>360</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8310,15 +8520,17 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>43</v>
@@ -8343,13 +8555,13 @@
         <v>43</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>364</v>
+        <v>43</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>365</v>
+        <v>43</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>43</v>
@@ -8367,7 +8579,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>361</v>
+        <v>133</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8379,28 +8591,28 @@
         <v>43</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>366</v>
+        <v>128</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>367</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8413,22 +8625,26 @@
         <v>43</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>369</v>
+        <v>215</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
       </c>
@@ -8452,13 +8668,13 @@
         <v>43</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>371</v>
+        <v>43</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>43</v>
@@ -8476,7 +8692,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>368</v>
+        <v>217</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8488,24 +8704,24 @@
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>373</v>
+        <v>93</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>374</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8516,7 +8732,7 @@
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>43</v>
@@ -8525,18 +8741,20 @@
         <v>43</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>335</v>
+        <v>145</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>300</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>43</v>
@@ -8561,13 +8779,13 @@
         <v>43</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>43</v>
+        <v>303</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>43</v>
@@ -8585,13 +8803,13 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>375</v>
+        <v>299</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>43</v>
@@ -8600,21 +8818,21 @@
         <v>62</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>43</v>
+        <v>304</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>378</v>
+        <v>305</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>379</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8637,13 +8855,13 @@
         <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>382</v>
+        <v>309</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8670,13 +8888,13 @@
         <v>43</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>43</v>
@@ -8694,7 +8912,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>380</v>
+        <v>307</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8712,18 +8930,18 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>385</v>
+        <v>310</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>386</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8734,7 +8952,7 @@
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>43</v>
@@ -8743,20 +8961,18 @@
         <v>43</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>133</v>
+        <v>313</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>388</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -8805,13 +9021,13 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>43</v>
@@ -8820,21 +9036,21 @@
         <v>62</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>43</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8845,7 +9061,7 @@
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>43</v>
@@ -8854,16 +9070,16 @@
         <v>43</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>139</v>
+        <v>322</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8914,47 +9130,47 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>43</v>
+        <v>288</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>43</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>43</v>
@@ -8966,16 +9182,16 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>143</v>
+        <v>327</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>144</v>
+        <v>328</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9025,72 +9241,70 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>145</v>
+        <v>326</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>43</v>
+        <v>332</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>43</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>334</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>149</v>
+        <v>337</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>43</v>
       </c>
@@ -9138,47 +9352,47 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>150</v>
+        <v>334</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>93</v>
+        <v>339</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>43</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>43</v>
@@ -9187,18 +9401,20 @@
         <v>43</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>396</v>
+        <v>145</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>397</v>
+        <v>343</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -9223,13 +9439,13 @@
         <v>43</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>43</v>
+        <v>347</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>43</v>
@@ -9247,13 +9463,13 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
@@ -9262,32 +9478,32 @@
         <v>62</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>399</v>
+        <v>348</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>253</v>
+        <v>349</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -9296,19 +9512,19 @@
         <v>43</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>70</v>
+        <v>353</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>403</v>
+        <v>354</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9334,13 +9550,13 @@
         <v>43</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>406</v>
+        <v>43</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>407</v>
+        <v>43</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>43</v>
@@ -9358,13 +9574,13 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>43</v>
@@ -9373,21 +9589,21 @@
         <v>62</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>408</v>
+        <v>349</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>43</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9398,7 +9614,7 @@
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>43</v>
@@ -9407,20 +9623,18 @@
         <v>43</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -9445,13 +9659,13 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>413</v>
+        <v>43</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>414</v>
+        <v>43</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
@@ -9469,13 +9683,13 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>43</v>
@@ -9487,7 +9701,7 @@
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>43</v>
@@ -9498,7 +9712,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9521,13 +9735,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>416</v>
+        <v>125</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>417</v>
+        <v>126</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9578,7 +9792,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>415</v>
+        <v>127</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9590,13 +9804,13 @@
         <v>43</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -9607,18 +9821,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>43</v>
@@ -9630,15 +9844,17 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>419</v>
+        <v>95</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -9687,70 +9903,72 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>418</v>
+        <v>133</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>252</v>
+        <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>422</v>
+        <v>128</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>424</v>
+        <v>361</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>425</v>
+        <v>95</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>426</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>427</v>
+        <v>216</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>43</v>
       </c>
@@ -9798,35 +10016,3008 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI75" t="s" s="2">
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI89" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ75" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AK75" t="s" s="2">
+      <c r="AJ89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AL75" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AL89" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM75">
+  <autoFilter ref="A1:AM102">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9836,7 +13027,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI101">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
